--- a/ProjectManaging/wwwroot/files/Jobs.xlsx
+++ b/ProjectManaging/wwwroot/files/Jobs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F7960-8EAA-40AF-8CCE-78DB02556ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>Job_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="234">
   <si>
     <t>Job_Name</t>
   </si>
@@ -28,58 +26,703 @@
     <t>Year</t>
   </si>
   <si>
-    <t>J210001</t>
-  </si>
-  <si>
     <t>J21-0001</t>
   </si>
   <si>
     <t>TEST-JOB</t>
   </si>
   <si>
-    <t>J21-9999</t>
-  </si>
-  <si>
-    <t>J21-9998</t>
-  </si>
-  <si>
-    <t>J21-9997</t>
-  </si>
-  <si>
-    <t>J219999</t>
-  </si>
-  <si>
-    <t>J219998</t>
-  </si>
-  <si>
-    <t>J219997</t>
-  </si>
-  <si>
-    <t>J219996</t>
-  </si>
-  <si>
-    <t>J21-9996</t>
-  </si>
-  <si>
-    <t>TEST IMPORT 1</t>
-  </si>
-  <si>
-    <t>TEST IMPORT 2</t>
-  </si>
-  <si>
-    <t>TEST IMPORT 3</t>
-  </si>
-  <si>
-    <t>TEST IMPORT 4</t>
-  </si>
-  <si>
-    <t>*Job_ID</t>
+    <t>ตัวอย่าง</t>
+  </si>
+  <si>
+    <t>J19-1228</t>
+  </si>
+  <si>
+    <t>KPN</t>
+  </si>
+  <si>
+    <t>J19-0192</t>
+  </si>
+  <si>
+    <t>MOCD 192</t>
+  </si>
+  <si>
+    <t>J19-0169</t>
+  </si>
+  <si>
+    <t>TTCL</t>
+  </si>
+  <si>
+    <t>J19-1055</t>
+  </si>
+  <si>
+    <t>SITE Ansell</t>
+  </si>
+  <si>
+    <t>J20-1378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansell </t>
+  </si>
+  <si>
+    <t>J20-1148</t>
+  </si>
+  <si>
+    <t>Project : Ansell LKB Topaz Line 4</t>
+  </si>
+  <si>
+    <t>J20-1205</t>
+  </si>
+  <si>
+    <t>J20-1348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topaz New Transformer-4 3500 KVA And New MDB-4 </t>
+  </si>
+  <si>
+    <t>J21-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J21-0041</t>
+  </si>
+  <si>
+    <t>TOPAZ DIPPING MACHINE LIGHTING AND POWER PLUG</t>
+  </si>
+  <si>
+    <t>J20-0462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Main Gate, Firefighting &amp; Security, Driver Off </t>
+  </si>
+  <si>
+    <t>J20-0721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD2IPC_work Package Phase 2,3 Project  </t>
+  </si>
+  <si>
+    <t>J20-0851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Instrument &amp; Electrical </t>
+  </si>
+  <si>
+    <t>J20-0864 OR 17</t>
+  </si>
+  <si>
+    <t>The MRT Orange Line (East Section)Station 17</t>
+  </si>
+  <si>
+    <t>J20-0864 OR 18</t>
+  </si>
+  <si>
+    <t>The MRT Orange Line (East Section)Station 18</t>
+  </si>
+  <si>
+    <t>J20-0962</t>
+  </si>
+  <si>
+    <t>FIT-2020KZ1</t>
+  </si>
+  <si>
+    <t>J20-0953</t>
+  </si>
+  <si>
+    <t>พีทีที โกลบอล เคมิคอล</t>
+  </si>
+  <si>
+    <t>J20-1297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPAZ DIPPING MACHINE LIGHTING &amp; POWER PLUG </t>
+  </si>
+  <si>
+    <t>J20-0303</t>
+  </si>
+  <si>
+    <t>ไทยโพลิเอททีลีน</t>
+  </si>
+  <si>
+    <t>J19-1288</t>
+  </si>
+  <si>
+    <t>UAW เลย J19-1228</t>
+  </si>
+  <si>
+    <t>J19-0966</t>
+  </si>
+  <si>
+    <t>New Charge</t>
+  </si>
+  <si>
+    <t>J19-1196</t>
+  </si>
+  <si>
+    <t>DBN 1196</t>
+  </si>
+  <si>
+    <t>J19-0792</t>
+  </si>
+  <si>
+    <t>ORP</t>
+  </si>
+  <si>
+    <t>J18-1395</t>
+  </si>
+  <si>
+    <t>บัวใหญ่</t>
+  </si>
+  <si>
+    <t>J19-0784</t>
+  </si>
+  <si>
+    <t>UAWสระบุรี</t>
+  </si>
+  <si>
+    <t>J19-1342</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>J18-1067</t>
+  </si>
+  <si>
+    <t>IRPC</t>
+  </si>
+  <si>
+    <t>J18-1076</t>
+  </si>
+  <si>
+    <t>INSTALLATION LEVEL WITH SOUNDER</t>
+  </si>
+  <si>
+    <t>J19-0567</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>J19-0762</t>
+  </si>
+  <si>
+    <t>Covestro</t>
+  </si>
+  <si>
+    <t>J19-1426</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>J19-0085</t>
+  </si>
+  <si>
+    <t>อำนาจเจริญ</t>
+  </si>
+  <si>
+    <t>UAW (1) 16-31JAN 2020 (สังคม)</t>
+  </si>
+  <si>
+    <t>J19-0853</t>
+  </si>
+  <si>
+    <t>นตและอ้อย 1-31 JAN 2020 (นศ.)</t>
+  </si>
+  <si>
+    <t>Covestro 1-29 FEB 2020 (นศ.)</t>
+  </si>
+  <si>
+    <t>J19-1491</t>
+  </si>
+  <si>
+    <t>SITEไบโอฟูเอล</t>
+  </si>
+  <si>
+    <t>J19-1330</t>
+  </si>
+  <si>
+    <t>SITEนต.สิงห์บุรี</t>
+  </si>
+  <si>
+    <t>J20-0004</t>
+  </si>
+  <si>
+    <t>SITE Office</t>
+  </si>
+  <si>
+    <t>J19-1304</t>
+  </si>
+  <si>
+    <t>TMMA Installation Work</t>
+  </si>
+  <si>
+    <t>J20-0103</t>
+  </si>
+  <si>
+    <t>Installation Flow Exaust Steam To Process (ครบุรี)</t>
+  </si>
+  <si>
+    <t>J19-1268</t>
+  </si>
+  <si>
+    <t>Cable pulling work at GC7</t>
+  </si>
+  <si>
+    <t>J19-1187</t>
+  </si>
+  <si>
+    <t>Smart Factory Project BRAND'S Suntory (Thailand)</t>
+  </si>
+  <si>
+    <t>J19-1306</t>
+  </si>
+  <si>
+    <t>ONLINE MONITORING PROJECT</t>
+  </si>
+  <si>
+    <t>J19-0915</t>
+  </si>
+  <si>
+    <t>Utility Improvement New Equipment for GC13(bor16)</t>
+  </si>
+  <si>
+    <t>J19-0838</t>
+  </si>
+  <si>
+    <t>Installation Temporary JB &amp; Gas detector ( 10sets</t>
+  </si>
+  <si>
+    <t>J19-0615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project ORU </t>
+  </si>
+  <si>
+    <t>J20-0318</t>
+  </si>
+  <si>
+    <t>Instrument Shut Down PM.Calibration and Verify</t>
+  </si>
+  <si>
+    <t>J20-0122</t>
+  </si>
+  <si>
+    <t>Fiber Optic Cable Installation Work</t>
+  </si>
+  <si>
+    <t>J20-0231</t>
+  </si>
+  <si>
+    <t>Project GC7</t>
+  </si>
+  <si>
+    <t>J19-1151</t>
+  </si>
+  <si>
+    <t>ETP T5527 Observation Basin  &amp; New Treated efflue</t>
+  </si>
+  <si>
+    <t>J20-0420</t>
+  </si>
+  <si>
+    <t>INSTALL INSTRUMENT &amp; ELECTRICAL I-19-135 ROC_MOCD2</t>
+  </si>
+  <si>
+    <t>J19-0827</t>
+  </si>
+  <si>
+    <t>INSTALLATION VIBRATION FOE SENSOR(PATHUMTHANI)</t>
+  </si>
+  <si>
+    <t>J20-0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ติดตั้งเครื่องมือวัดความเป็นกรด-ด่าง และปรับปรุง </t>
+  </si>
+  <si>
+    <t>J20-0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Anti-Foam feeding Phase A,B (MBF) </t>
+  </si>
+  <si>
+    <t>J20-0415</t>
+  </si>
+  <si>
+    <t>PROJECT: VSD BELT CONVEYOR</t>
+  </si>
+  <si>
+    <t>J20-0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Exchangers (2E-6203) and refrigerator </t>
+  </si>
+  <si>
+    <t>J20-0582</t>
+  </si>
+  <si>
+    <t>11 KV SWGR and PCM Room</t>
+  </si>
+  <si>
+    <t>J20-0407</t>
+  </si>
+  <si>
+    <t>Instrument Installation For Heat Source and Belt Dryer</t>
+  </si>
+  <si>
+    <t>J20-0370</t>
+  </si>
+  <si>
+    <t>INSTALLATIONS VIBRATION SENSOR @SCG</t>
+  </si>
+  <si>
+    <t>J20-0156</t>
+  </si>
+  <si>
+    <t>INSTALLATION VIBRATION (P&amp;A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J19-0828</t>
+  </si>
+  <si>
+    <t>INSTALLATION VIBRATION FOR SENSOR(SAMUTPRAKARN)</t>
+  </si>
+  <si>
+    <t>J20-0589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">งานติดตั้งระบบไฟฟ้าโครงการปุ๋ยอัดเม็ด </t>
+  </si>
+  <si>
+    <t>J19-1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Detector Installation work (Additional) BST </t>
+  </si>
+  <si>
+    <t>J20-0232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronization system control for ODC AN2 Project </t>
+  </si>
+  <si>
+    <t>J20-0369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บางกอกอินดัสเทรียลแก๊ส </t>
+  </si>
+  <si>
+    <t>J19-0688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIAM TAKUMA (Myanmar) </t>
+  </si>
+  <si>
+    <t>J20-0199</t>
+  </si>
+  <si>
+    <t>งานติดตั้ง Flow transmeter water plant Size10",12" (ภูหลวง)</t>
+  </si>
+  <si>
+    <t>J20-0728</t>
+  </si>
+  <si>
+    <t>ระบบลากสายสัญญาณ ระบท่อวนSeed</t>
+  </si>
+  <si>
+    <t>J20-0733</t>
+  </si>
+  <si>
+    <t>ไทยโพลีอิททีลีน</t>
+  </si>
+  <si>
+    <t>J20-0739</t>
+  </si>
+  <si>
+    <t>AS1-2 Install Temp Controller</t>
+  </si>
+  <si>
+    <t>J20-0752</t>
+  </si>
+  <si>
+    <t>INSTALL INSTRUMENT &amp; ELECTRICAL FOR M2 SKID</t>
+  </si>
+  <si>
+    <t>J20-0493</t>
+  </si>
+  <si>
+    <t>เอ็นเอส-สยามยูไนเต็ทสตีล</t>
+  </si>
+  <si>
+    <t>J20-0856</t>
+  </si>
+  <si>
+    <t>Modify Panel Dryer 5</t>
+  </si>
+  <si>
+    <t>J20-0740</t>
+  </si>
+  <si>
+    <t>งานติดตั้ง Pressure Transducer ท่อดับเพลิง</t>
+  </si>
+  <si>
+    <t>J20-0864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MRT Orange Line (East Section)Station 17&amp;18 </t>
+  </si>
+  <si>
+    <t>J20-0890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">งานระบบ Lightning System </t>
+  </si>
+  <si>
+    <t>J20-0896</t>
+  </si>
+  <si>
+    <t>Replace And Install paging system v2 (TPC)</t>
+  </si>
+  <si>
+    <t>J20-0936</t>
+  </si>
+  <si>
+    <t>Alignment 11kV (บัวใหญ่ไบโอพาวเวอร์)</t>
+  </si>
+  <si>
+    <t>J20-0872</t>
+  </si>
+  <si>
+    <t>งานจ้างเหมาระบบ Instrument 2020</t>
+  </si>
+  <si>
+    <t>J20-0633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control System Prevencetive Maiantatance &amp; Field </t>
+  </si>
+  <si>
+    <t>J20-0640</t>
+  </si>
+  <si>
+    <t>NEW ONLINE ANALYZER AT-9204 REVAMP PROJECT</t>
+  </si>
+  <si>
+    <t>J19-1101</t>
+  </si>
+  <si>
+    <t>โครงการติดตั้งเครื่อง TOC</t>
+  </si>
+  <si>
+    <t>J19-0931</t>
+  </si>
+  <si>
+    <t>งานเดินสายสัญญาณ on/off Valve Control รางA</t>
+  </si>
+  <si>
+    <t>J19-1155</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Offline Vibration Sensors for Unsafety Inspection</t>
+  </si>
+  <si>
+    <t>J19-1021</t>
+  </si>
+  <si>
+    <t>S::CAN Waste water online monitoring system</t>
+  </si>
+  <si>
+    <t>J18-1547</t>
+  </si>
+  <si>
+    <t>OFF GAS OPTIMIZATION PROJECT FOR HDPE1</t>
+  </si>
+  <si>
+    <t>J20-0861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">น้ำตาลมิตรกาฬสินธุ์ </t>
+  </si>
+  <si>
+    <t>J20-0773</t>
+  </si>
+  <si>
+    <t>มิตรผลไบโอ-เพาเวอร์(ภูหลวง)</t>
+  </si>
+  <si>
+    <t>J20-0745</t>
+  </si>
+  <si>
+    <t>รวมเกษตรกรอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>J20-0509</t>
+  </si>
+  <si>
+    <t>Installation Work (TMMA)</t>
+  </si>
+  <si>
+    <t>J20-0891</t>
+  </si>
+  <si>
+    <t>J20-0467</t>
+  </si>
+  <si>
+    <t>น้ำตาลทิพย์กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>J20-0981</t>
+  </si>
+  <si>
+    <t>1 (ONE) COMPLETE SET OF WATER IN NMP ONLINE ไออาร์พีซี</t>
+  </si>
+  <si>
+    <t>J20-1085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grounding system modification work at GC8 </t>
+  </si>
+  <si>
+    <t>J20-1112</t>
+  </si>
+  <si>
+    <t>BST ( Gas Detector additional )</t>
+  </si>
+  <si>
+    <t>J20-0858</t>
+  </si>
+  <si>
+    <t>ไนโตรเคมีอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>J20-0751</t>
+  </si>
+  <si>
+    <t>แอร์ ลิควิด</t>
+  </si>
+  <si>
+    <t>J20-0897</t>
+  </si>
+  <si>
+    <t>เรียล โซลูพลัส</t>
+  </si>
+  <si>
+    <t>J20-0948</t>
+  </si>
+  <si>
+    <t>Storage Tanks and Associated Facilities (ORP)</t>
+  </si>
+  <si>
+    <t>J20-0397</t>
+  </si>
+  <si>
+    <t>J20-1072</t>
+  </si>
+  <si>
+    <t>พีทีที โกลบอล เคมิคอล (GC7 Area)</t>
+  </si>
+  <si>
+    <t>J20-1175</t>
+  </si>
+  <si>
+    <t>บริษัท แอนเซลล์ (ประเทศไทย) จำกัด</t>
+  </si>
+  <si>
+    <t>J20-0920</t>
+  </si>
+  <si>
+    <t>Project: AS1 Control Panel No.5</t>
+  </si>
+  <si>
+    <t>J21-0094</t>
+  </si>
+  <si>
+    <t>E&amp;I work for Increase Dilution Steam from HP Steam</t>
+  </si>
+  <si>
+    <t>J20-1079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demolish Exiting dust monitor &amp; Install new dust </t>
+  </si>
+  <si>
+    <t>J21-0211</t>
+  </si>
+  <si>
+    <t>HDPE Pilot plant modification Project</t>
+  </si>
+  <si>
+    <t>J20-1374</t>
+  </si>
+  <si>
+    <t>โครงการติดตั้งระบบ Automatic antifoam feeding KS</t>
+  </si>
+  <si>
+    <t>J21-0189</t>
+  </si>
+  <si>
+    <t>NEW PLANT LOADING (LS PLANT)</t>
+  </si>
+  <si>
+    <t>J21-0230</t>
+  </si>
+  <si>
+    <t>งานแก้ไขสัญญาณรบกวน TS vibration sensor (Old) @SCG (GC 7)</t>
+  </si>
+  <si>
+    <t>J20-1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ansell_UT113_Install new water meter 4 unit</t>
+  </si>
+  <si>
+    <t>J21-0270</t>
+  </si>
+  <si>
+    <t>INSTRUMENT INSTALLATION WORK  (ไนโตรเคมีอุตสาหกรรม)</t>
+  </si>
+  <si>
+    <t>J21-0273</t>
+  </si>
+  <si>
+    <t>งานติดตั้งรางกัลวาไนซ์ Tray 200 x 100 mm.</t>
+  </si>
+  <si>
+    <t>J21-0345</t>
+  </si>
+  <si>
+    <t>VINY Thai</t>
+  </si>
+  <si>
+    <t>J21-0224 PK25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE MRT PINK  &amp; YELLOW </t>
+  </si>
+  <si>
+    <t>J21-0333</t>
+  </si>
+  <si>
+    <t>Field Instrument Installation SPP 24MW</t>
+  </si>
+  <si>
+    <t>J20-0356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical and Control System for Cooling Tower </t>
+  </si>
+  <si>
+    <t>J21-0285</t>
+  </si>
+  <si>
+    <t>E-6203 install IE&amp;EE work  Project (TMMA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +753,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,11 +795,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,12 +840,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +959,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,6 +1011,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,114 +1203,1338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="9" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C10" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="1">
         <v>2021</v>
       </c>
     </row>
